--- a/result/NCDC_weather_data/stations_imputed/45035099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/45035099999.xlsx
@@ -567,7 +567,9 @@
       <c r="M2" t="n">
         <v>2.880864</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O2" t="n">
         <v>151.16</v>
       </c>
@@ -621,7 +623,9 @@
       <c r="M3" t="n">
         <v>4.218407999999999</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O3" t="n">
         <v>156.74</v>
       </c>
@@ -675,7 +679,9 @@
       <c r="M4" t="n">
         <v>3.60108</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O4" t="n">
         <v>158.36</v>
       </c>
@@ -729,7 +735,9 @@
       <c r="M5" t="n">
         <v>4.37274</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O5" t="n">
         <v>168.08</v>
       </c>
@@ -783,7 +791,9 @@
       <c r="M6" t="n">
         <v>5.504508</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O6" t="n">
         <v>165.74</v>
       </c>
@@ -837,7 +847,9 @@
       <c r="M7" t="n">
         <v>4.11552</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O7" t="n">
         <v>164.12</v>
       </c>
@@ -891,7 +903,9 @@
       <c r="M8" t="n">
         <v>4.218407999999999</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O8" t="n">
         <v>168.08</v>
       </c>
@@ -945,7 +959,9 @@
       <c r="M9" t="n">
         <v>3.498192</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O9" t="n">
         <v>150.26</v>
       </c>
@@ -999,7 +1015,9 @@
       <c r="M10" t="n">
         <v>4.475627999999999</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O10" t="n">
         <v>158.36</v>
       </c>
@@ -1053,7 +1071,9 @@
       <c r="M11" t="n">
         <v>6.17328</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O11" t="n">
         <v>155.12</v>
       </c>
@@ -1107,7 +1127,9 @@
       <c r="M12" t="n">
         <v>8.385372</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O12" t="n">
         <v>142.16</v>
       </c>
@@ -1161,7 +1183,9 @@
       <c r="M13" t="n">
         <v>4.681404</v>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O13" t="n">
         <v>145.4</v>
       </c>
@@ -1215,7 +1239,9 @@
       <c r="M14" t="n">
         <v>5.607396</v>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O14" t="n">
         <v>148.28</v>
       </c>
@@ -1269,7 +1295,9 @@
       <c r="M15" t="n">
         <v>3.806856</v>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O15" t="n">
         <v>147.92</v>
       </c>
@@ -1323,7 +1351,9 @@
       <c r="M16" t="n">
         <v>4.37274</v>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O16" t="n">
         <v>158.36</v>
       </c>
@@ -1377,7 +1407,9 @@
       <c r="M17" t="n">
         <v>4.37274</v>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O17" t="n">
         <v>165.74</v>
       </c>
@@ -1431,7 +1463,9 @@
       <c r="M18" t="n">
         <v>4.37274</v>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O18" t="n">
         <v>154.4</v>
       </c>
@@ -1485,7 +1519,9 @@
       <c r="M19" t="n">
         <v>4.681404</v>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O19" t="n">
         <v>148.64</v>
       </c>
@@ -1539,7 +1575,9 @@
       <c r="M20" t="n">
         <v>4.578516</v>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O20" t="n">
         <v>153.5</v>
       </c>
@@ -1593,7 +1631,9 @@
       <c r="M21" t="n">
         <v>6.687720000000001</v>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O21" t="n">
         <v>154.4</v>
       </c>
@@ -1647,7 +1687,9 @@
       <c r="M22" t="n">
         <v>4.37274</v>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O22" t="n">
         <v>168.98</v>
       </c>
@@ -1701,7 +1743,9 @@
       <c r="M23" t="n">
         <v>3.60108</v>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O23" t="n">
         <v>153.14</v>
       </c>
@@ -1755,7 +1799,9 @@
       <c r="M24" t="n">
         <v>3.292416</v>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O24" t="n">
         <v>159.98</v>
       </c>
@@ -1809,7 +1855,9 @@
       <c r="M25" t="n">
         <v>4.11552</v>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O25" t="n">
         <v>162.5</v>
       </c>
@@ -1863,7 +1911,9 @@
       <c r="M26" t="n">
         <v>3.703968</v>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O26" t="n">
         <v>152.78</v>
       </c>
@@ -1917,7 +1967,9 @@
       <c r="M27" t="n">
         <v>3.60108</v>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O27" t="n">
         <v>164.12</v>
       </c>
@@ -1971,7 +2023,9 @@
       <c r="M28" t="n">
         <v>4.11552</v>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O28" t="n">
         <v>164.12</v>
       </c>
@@ -2025,7 +2079,9 @@
       <c r="M29" t="n">
         <v>5.195844</v>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O29" t="n">
         <v>162.5</v>
       </c>
@@ -2079,7 +2135,9 @@
       <c r="M30" t="n">
         <v>8.282484</v>
       </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O30" t="n">
         <v>159.98</v>
       </c>
@@ -2133,7 +2191,9 @@
       <c r="M31" t="n">
         <v>6.893496000000001</v>
       </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O31" t="n">
         <v>146.3</v>
       </c>
@@ -2187,7 +2247,9 @@
       <c r="M32" t="n">
         <v>7.510824</v>
       </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O32" t="n">
         <v>130.46</v>
       </c>
@@ -2241,7 +2303,9 @@
       <c r="M33" t="n">
         <v>4.578516</v>
       </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O33" t="n">
         <v>130.1</v>
       </c>
@@ -2295,7 +2359,9 @@
       <c r="M34" t="n">
         <v>5.40162</v>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O34" t="n">
         <v>133.7</v>
       </c>
@@ -2349,7 +2415,9 @@
       <c r="M35" t="n">
         <v>5.298732</v>
       </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O35" t="n">
         <v>127.22</v>
       </c>
@@ -2403,7 +2471,9 @@
       <c r="M36" t="n">
         <v>6.996384</v>
       </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O36" t="n">
         <v>143.42</v>
       </c>
@@ -2457,7 +2527,9 @@
       <c r="M37" t="n">
         <v>4.37274</v>
       </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O37" t="n">
         <v>141.8</v>
       </c>
@@ -2511,7 +2583,9 @@
       <c r="M38" t="n">
         <v>5.607396</v>
       </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O38" t="n">
         <v>153.5</v>
       </c>
@@ -2565,7 +2639,9 @@
       <c r="M39" t="n">
         <v>5.195844</v>
       </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O39" t="n">
         <v>149.54</v>
       </c>
@@ -2619,7 +2695,9 @@
       <c r="M40" t="n">
         <v>4.88718</v>
       </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O40" t="n">
         <v>143.78</v>
       </c>
@@ -2673,7 +2751,9 @@
       <c r="M41" t="n">
         <v>3.909744</v>
       </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O41" t="n">
         <v>142.16</v>
       </c>
@@ -2727,7 +2807,9 @@
       <c r="M42" t="n">
         <v>5.195844</v>
       </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O42" t="n">
         <v>148.28</v>
       </c>
@@ -2781,7 +2863,9 @@
       <c r="M43" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O43" t="n">
         <v>159.98</v>
       </c>
@@ -2835,7 +2919,9 @@
       <c r="M44" t="n">
         <v>5.298732</v>
       </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O44" t="n">
         <v>160.88</v>
       </c>
@@ -2889,7 +2975,9 @@
       <c r="M45" t="n">
         <v>6.018948</v>
       </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O45" t="n">
         <v>140.54</v>
       </c>
@@ -2943,7 +3031,9 @@
       <c r="M46" t="n">
         <v>5.092956</v>
       </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O46" t="n">
         <v>151.88</v>
       </c>
@@ -2997,7 +3087,9 @@
       <c r="M47" t="n">
         <v>5.195844</v>
       </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O47" t="n">
         <v>153.5</v>
       </c>
@@ -3051,7 +3143,9 @@
       <c r="M48" t="n">
         <v>7.20216</v>
       </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O48" t="n">
         <v>156.02</v>
       </c>
@@ -3105,7 +3199,9 @@
       <c r="M49" t="n">
         <v>6.893496000000001</v>
       </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O49" t="n">
         <v>144.68</v>
       </c>
@@ -3159,7 +3255,9 @@
       <c r="M50" t="n">
         <v>6.481943999999999</v>
       </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>13.09692493175074</v>
+      </c>
       <c r="O50" t="n">
         <v>157.64</v>
       </c>
